--- a/electrical.xlsx
+++ b/electrical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\Documents\workspace\urbanmodels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\workspace\urbanmodels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,7 +47,7 @@
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
@@ -82,10 +82,10 @@
     <t>Capacity</t>
   </si>
   <si>
-    <t>Question 1: The plan is to bring  a single 100MW generators online in each of years 1-4 and then in year 5 build 2 10MW and 1 50MW.  The total cost is 8.106 million.</t>
+    <t>Question 2: We now build a 10MW generator in year 3, 4 and 5 instead of 3 in year 5.  The cost goes up by about $100,000.</t>
   </si>
   <si>
-    <t>Question 2: We now build a 10MW generator in year 3, 4 and 5 instead of 3 in year 5.  The cost goes up by about $100,000.</t>
+    <t>Question 1: The plan is to bring  a single 100MW generators online in each of years 1-4 and then in year 5 build 3 10MW and 1 50MW.  The total cost is 8.106 million.</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,12 +714,12 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
